--- a/Business/Trao đổi với khách hàng/Country.xlsx
+++ b/Business/Trao đổi với khách hàng/Country.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8D8057-9C81-4862-A638-609882D9601C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0BDA48-91A0-4E2E-A90A-77F5DDA5E4A8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1581,14 +1581,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,9 +1870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D242"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1881,18 +1883,18 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1902,8 +1904,12 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO country (country_id,name, short_name) VALUES(",A2,",'",B2,"',","'",C2,"');")</f>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(1,'AFGHANISTAN','AF');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1913,8 +1919,12 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT("INSERT INTO country (country_id,name, short_name) VALUES(",A3,",'",B3,"',","'",C3,"');")</f>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(2,'ÅLAND ISLANDS','AX');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1924,8 +1934,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(3,'ALBANIA','AL');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1935,8 +1949,12 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(4,'ALGERIA','DZ');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1946,8 +1964,12 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(5,'AMERICAN SAMOA','AS');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1957,8 +1979,12 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(6,'ANDORRA','AD');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1968,8 +1994,12 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(7,'ANGOLA','AO');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1979,8 +2009,12 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(8,'ANGUILLA','AI');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1990,8 +2024,12 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(9,'ANTARCTICA','AQ');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2001,8 +2039,12 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(10,'ANTIGUA AND BARBUDA','AG');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2012,8 +2054,12 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(11,'ARGENTINA','AR');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2023,8 +2069,12 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(12,'ARMENIA','AM');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2034,8 +2084,12 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(13,'ARUBA','AW');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2045,8 +2099,12 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(14,'AUSTRALIA','AU');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2056,8 +2114,12 @@
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(15,'AUSTRIA','AT');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2067,8 +2129,12 @@
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(16,'AZERBAIJAN','AZ');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2078,8 +2144,12 @@
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(17,'BAHAMAS','BS');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2089,8 +2159,12 @@
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(18,'BAHRAIN','BH');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2100,8 +2174,12 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(19,'BANGLADESH','BD');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2111,8 +2189,12 @@
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(20,'BARBADOS','BB');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2122,8 +2204,12 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(21,'BELARUS','BY');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2133,8 +2219,12 @@
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(22,'BELGIUM','BE');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2144,8 +2234,12 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(23,'BELIZE','BZ');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2155,8 +2249,12 @@
       <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(24,'BENIN','BJ');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2166,8 +2264,12 @@
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(25,'BERMUDA','BM');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2177,8 +2279,12 @@
       <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(26,'BHUTAN','BT');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2188,8 +2294,12 @@
       <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(27,'BOLIVIA','BO');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2199,8 +2309,12 @@
       <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(28,'BOSNIA AND HERZEGOVINA','BA');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2210,8 +2324,12 @@
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(29,'BOTSWANA','BW');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2221,8 +2339,12 @@
       <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(30,'BOUVET ISLAND','BV');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2232,8 +2354,12 @@
       <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(31,'BRAZIL','BR');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2243,8 +2369,12 @@
       <c r="C33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(32,'BRITISH INDIAN OCEAN TERRITORY','IO');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2254,8 +2384,12 @@
       <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(33,'BRUNEI DARUSSALAM','BN');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2265,8 +2399,12 @@
       <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(34,'BULGARIA','BG');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2276,8 +2414,12 @@
       <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(35,'BURKINA FASO','BF');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2287,8 +2429,12 @@
       <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(36,'BURUNDI','BI');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2298,8 +2444,12 @@
       <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(37,'CAMBODIA','KH');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2309,8 +2459,12 @@
       <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(38,'CAMEROON','CM');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2320,8 +2474,12 @@
       <c r="C40" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(39,'CANADA','CA');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2331,8 +2489,12 @@
       <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(40,'CAPE VERDE','CV');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2342,8 +2504,12 @@
       <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(41,'CAYMAN ISLANDS','KY');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2353,8 +2519,12 @@
       <c r="C43" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(42,'CENTRAL AFRICAN REPUBLIC','CF');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2364,8 +2534,12 @@
       <c r="C44" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(43,'CHAD','TD');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2375,8 +2549,12 @@
       <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(44,'CHILE','CL');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2386,8 +2564,12 @@
       <c r="C46" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(45,'CHINA','CN');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2397,8 +2579,12 @@
       <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(46,'CHRISTMAS ISLAND','CX');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2408,8 +2594,12 @@
       <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(47,'COCOS (KEELING) ISLANDS','CC');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2419,8 +2609,12 @@
       <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(48,'COLOMBIA','CO');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2430,8 +2624,12 @@
       <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(49,'COMOROS','KM');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2441,8 +2639,12 @@
       <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(50,'CONGO','CG');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2452,8 +2654,12 @@
       <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(51,'CONGO, THE DEMOCRATIC REPUBLIC OF THE','CD');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2463,8 +2669,12 @@
       <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(52,'COOK ISLANDS','CK');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2474,8 +2684,12 @@
       <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(53,'COSTA RICA','CR');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2485,8 +2699,12 @@
       <c r="C55" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(54,'CÔTE D'IVOIRE','CI');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2496,8 +2714,12 @@
       <c r="C56" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(55,'CROATIA','HR');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2507,8 +2729,12 @@
       <c r="C57" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(56,'CUBA','CU');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2518,8 +2744,12 @@
       <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(57,'CYPRUS','CY');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2529,8 +2759,12 @@
       <c r="C59" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(58,'CZECH REPUBLIC','CZ');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2540,8 +2774,12 @@
       <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(59,'DENMARK','DK');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2551,8 +2789,12 @@
       <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(60,'DJIBOUTI','DJ');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2562,8 +2804,12 @@
       <c r="C62" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(61,'DOMINICA','DM');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2573,8 +2819,12 @@
       <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(62,'DOMINICAN REPUBLIC','DO');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2584,8 +2834,12 @@
       <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(63,'ECUADOR','EC');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2595,8 +2849,12 @@
       <c r="C65" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(64,'EGYPT','EG');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2606,8 +2864,12 @@
       <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(65,'EL SALVADOR','SV');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2617,8 +2879,12 @@
       <c r="C67" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">_xlfn.CONCAT("INSERT INTO country (country_id,name, short_name) VALUES(",A67,",'",B67,"',","'",C67,"');")</f>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(66,'EQUATORIAL GUINEA','GQ');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2628,8 +2894,12 @@
       <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(67,'ERITREA','ER');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2639,8 +2909,12 @@
       <c r="C69" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(68,'ESTONIA','EE');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2650,8 +2924,12 @@
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(69,'ETHIOPIA','ET');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2661,8 +2939,12 @@
       <c r="C71" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(70,'FALKLAND ISLANDS (MALVINAS)','FK');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2672,8 +2954,12 @@
       <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(71,'FAROE ISLANDS','FO');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2683,8 +2969,12 @@
       <c r="C73" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(72,'FIJI','FJ');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2694,8 +2984,12 @@
       <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(73,'FINLAND','FI');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2705,8 +2999,12 @@
       <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(74,'FRANCE','FR');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2716,8 +3014,12 @@
       <c r="C76" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(75,'FRENCH GUIANA','GF');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2727,8 +3029,12 @@
       <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(76,'FRENCH POLYNESIA','PF');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2738,8 +3044,12 @@
       <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(77,'FRENCH SOUTHERN TERRITORIES','TF');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2749,8 +3059,12 @@
       <c r="C79" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(78,'GABON','GA');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2760,8 +3074,12 @@
       <c r="C80" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(79,'GAMBIA','GM');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2771,8 +3089,12 @@
       <c r="C81" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(80,'GEORGIA','GE');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2782,8 +3104,12 @@
       <c r="C82" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(81,'GERMANY','DE');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2793,8 +3119,12 @@
       <c r="C83" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(82,'GHANA','GH');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2804,8 +3134,12 @@
       <c r="C84" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(83,'GIBRALTAR','GI');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2815,8 +3149,12 @@
       <c r="C85" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(84,'GREECE','GR');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2826,8 +3164,12 @@
       <c r="C86" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(85,'GREENLAND','GL');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2837,8 +3179,12 @@
       <c r="C87" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(86,'GRENADA','GD');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2848,8 +3194,12 @@
       <c r="C88" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(87,'GUADELOUPE','GP');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2859,8 +3209,12 @@
       <c r="C89" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(88,'GUAM','GU');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2870,8 +3224,12 @@
       <c r="C90" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(89,'GUATEMALA','GT');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2881,8 +3239,12 @@
       <c r="C91" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(90,'GUINEA','GN');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2892,8 +3254,12 @@
       <c r="C92" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(91,'GUINEA-BISSAU','GW');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2903,8 +3269,12 @@
       <c r="C93" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(92,'GUYANA','GY');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2914,8 +3284,12 @@
       <c r="C94" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(93,'HAITI','HT');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2925,8 +3299,12 @@
       <c r="C95" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(94,'HEARD ISLAND AND MCDONALD ISLANDS','HM');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2936,8 +3314,12 @@
       <c r="C96" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(95,'HOLY SEE (VATICAN CITY STATE)','VA');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2947,8 +3329,12 @@
       <c r="C97" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(96,'HONDURAS','HN');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2958,8 +3344,12 @@
       <c r="C98" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(97,'HONG KONG','HK');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2969,8 +3359,12 @@
       <c r="C99" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(98,'HUNGARY','HU');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2980,8 +3374,12 @@
       <c r="C100" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(99,'ICELAND','IS');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2991,8 +3389,12 @@
       <c r="C101" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(100,'INDIA','IN');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3002,8 +3404,12 @@
       <c r="C102" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(101,'INDONESIA','ID');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3013,8 +3419,12 @@
       <c r="C103" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(102,'IRAN, ISLAMIC REPUBLIC OF','IR');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3024,8 +3434,12 @@
       <c r="C104" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(103,'IRAQ','IQ');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3035,8 +3449,12 @@
       <c r="C105" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(104,'IRELAND','IE');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3046,8 +3464,12 @@
       <c r="C106" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(105,'ISRAEL','IL');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3057,8 +3479,12 @@
       <c r="C107" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(106,'ITALY','IT');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3068,8 +3494,12 @@
       <c r="C108" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(107,'JAMAICA','JM');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3079,8 +3509,12 @@
       <c r="C109" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(108,'JAPAN','JP');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3090,8 +3524,12 @@
       <c r="C110" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(109,'JORDAN','JO');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3101,8 +3539,12 @@
       <c r="C111" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(110,'KAZAKHSTAN','KZ');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3112,8 +3554,12 @@
       <c r="C112" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(111,'KENYA','KE');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3123,8 +3569,12 @@
       <c r="C113" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(112,'KIRIBATI','KI');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3134,8 +3584,12 @@
       <c r="C114" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(113,'KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF','KP');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3145,8 +3599,12 @@
       <c r="C115" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(114,'KOREA, REPUBLIC OF','KR');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3156,8 +3614,12 @@
       <c r="C116" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(115,'KUWAIT','KW');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3167,8 +3629,12 @@
       <c r="C117" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(116,'KYRGYZSTAN','KG');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3178,8 +3644,12 @@
       <c r="C118" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(117,'LAO PEOPLE'S DEMOCRATIC REPUBLIC','LA');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3189,8 +3659,12 @@
       <c r="C119" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(118,'LATVIA','LV');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3200,8 +3674,12 @@
       <c r="C120" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(119,'LEBANON','LB');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3211,8 +3689,12 @@
       <c r="C121" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(120,'LESOTHO','LS');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3222,8 +3704,12 @@
       <c r="C122" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(121,'LIBERIA','LR');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3233,8 +3719,12 @@
       <c r="C123" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(122,'LIBYAN ARAB JAMAHIRIYA','LY');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3244,8 +3734,12 @@
       <c r="C124" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(123,'LIECHTENSTEIN','LI');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3255,8 +3749,12 @@
       <c r="C125" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(124,'LITHUANIA','LT');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3266,8 +3764,12 @@
       <c r="C126" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(125,'LUXEMBOURG','LU');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3277,8 +3779,12 @@
       <c r="C127" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(126,'MACAO','MO');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3288,8 +3794,12 @@
       <c r="C128" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(127,'MACEDONIA, THE FORMER YUGOSLAV REPUBLIC OF','MK');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3299,8 +3809,12 @@
       <c r="C129" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(128,'MADAGASCAR','MG');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3310,8 +3824,12 @@
       <c r="C130" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(129,'MALAWI','MW');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3321,8 +3839,12 @@
       <c r="C131" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">_xlfn.CONCAT("INSERT INTO country (country_id,name, short_name) VALUES(",A131,",'",B131,"',","'",C131,"');")</f>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(130,'MALAYSIA','MY');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3332,8 +3854,12 @@
       <c r="C132" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(131,'MALDIVES','MV');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3343,8 +3869,12 @@
       <c r="C133" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(132,'MALI','ML');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3354,8 +3884,12 @@
       <c r="C134" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(133,'MALTA','MT');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3365,8 +3899,12 @@
       <c r="C135" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(134,'MARSHALL ISLANDS','MH');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3376,8 +3914,12 @@
       <c r="C136" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(135,'MARTINIQUE','MQ');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3387,8 +3929,12 @@
       <c r="C137" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(136,'MAURITANIA','MR');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3398,8 +3944,12 @@
       <c r="C138" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(137,'MAURITIUS','MU');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3409,8 +3959,12 @@
       <c r="C139" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(138,'MAYOTTE','YT');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3420,8 +3974,12 @@
       <c r="C140" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(139,'MEXICO','MX');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3431,8 +3989,12 @@
       <c r="C141" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(140,'MICRONESIA, FEDERATED STATES OF','FM');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3442,8 +4004,12 @@
       <c r="C142" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(141,'MOLDOVA, REPUBLIC OF','MD');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3453,8 +4019,12 @@
       <c r="C143" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(142,'MONACO','MC');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3464,8 +4034,12 @@
       <c r="C144" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(143,'MONGOLIA','MN');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3475,8 +4049,12 @@
       <c r="C145" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(144,'MONTSERRAT','MS');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3486,8 +4064,12 @@
       <c r="C146" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(145,'MOROCCO','MA');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3497,8 +4079,12 @@
       <c r="C147" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(146,'MOZAMBIQUE','MZ');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3508,8 +4094,12 @@
       <c r="C148" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(147,'MYANMAR','MM');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3519,8 +4109,12 @@
       <c r="C149" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(148,'NAMIBIA','NA');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3530,8 +4124,12 @@
       <c r="C150" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(149,'NAURU','NR');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3541,8 +4139,12 @@
       <c r="C151" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(150,'NEPAL','NP');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3552,8 +4154,12 @@
       <c r="C152" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(151,'NETHERLANDS','NL');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3563,8 +4169,12 @@
       <c r="C153" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(152,'NETHERLANDS ANTILLES','AN');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3574,8 +4184,12 @@
       <c r="C154" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(153,'NEW CALEDONIA','NC');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3585,8 +4199,12 @@
       <c r="C155" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(154,'NEW ZEALAND','NZ');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3596,8 +4214,12 @@
       <c r="C156" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(155,'NICARAGUA','NI');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3607,8 +4229,12 @@
       <c r="C157" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(156,'NIGER','NE');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3618,8 +4244,12 @@
       <c r="C158" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(157,'NIGERIA','NG');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3629,8 +4259,12 @@
       <c r="C159" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(158,'NIUE','NU');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3640,8 +4274,12 @@
       <c r="C160" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(159,'NORFOLK ISLAND','NF');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3651,8 +4289,12 @@
       <c r="C161" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(160,'NORTHERN MARIANA ISLANDS','MP');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3662,8 +4304,12 @@
       <c r="C162" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(161,'NORWAY','NO');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3673,8 +4319,12 @@
       <c r="C163" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(162,'OMAN','OM');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3684,8 +4334,12 @@
       <c r="C164" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(163,'PAKISTAN','PK');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3695,8 +4349,12 @@
       <c r="C165" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(164,'PALAU','PW');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3706,8 +4364,12 @@
       <c r="C166" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(165,'PALESTINIAN TERRITORY, OCCUPIED','PS');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3717,8 +4379,12 @@
       <c r="C167" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(166,'PANAMA','PA');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3728,8 +4394,12 @@
       <c r="C168" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(167,'PAPUA NEW GUINEA','PG');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3739,8 +4409,12 @@
       <c r="C169" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(168,'PARAGUAY','PY');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3750,8 +4424,12 @@
       <c r="C170" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(169,'PERU','PE');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3761,8 +4439,12 @@
       <c r="C171" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(170,'PHILIPPINES','PH');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3772,8 +4454,12 @@
       <c r="C172" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(171,'PITCAIRN','PN');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3783,8 +4469,12 @@
       <c r="C173" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(172,'POLAND','PL');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3794,8 +4484,12 @@
       <c r="C174" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(173,'PORTUGAL','PT');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3805,8 +4499,12 @@
       <c r="C175" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(174,'PUERTO RICO','PR');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3816,8 +4514,12 @@
       <c r="C176" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(175,'QATAR','QA');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3827,8 +4529,12 @@
       <c r="C177" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(176,'RÉUNION','RE');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3838,8 +4544,12 @@
       <c r="C178" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(177,'ROMANIA','RO');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3849,8 +4559,12 @@
       <c r="C179" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(178,'RUSSIAN FEDERATION','RU');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3860,8 +4574,12 @@
       <c r="C180" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(179,'RWANDA','RW');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3871,8 +4589,12 @@
       <c r="C181" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(180,'SAINT HELENA','SH');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3882,8 +4604,12 @@
       <c r="C182" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(181,'SAINT KITTS AND NEVIS','KN');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3893,8 +4619,12 @@
       <c r="C183" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(182,'SAINT LUCIA','LC');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3904,8 +4634,12 @@
       <c r="C184" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(183,'SAINT PIERRE AND MIQUELON','PM');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3915,8 +4649,12 @@
       <c r="C185" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(184,'SAINT VINCENT AND THE GRENADINES','VC');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3926,8 +4664,12 @@
       <c r="C186" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(185,'SAMOA','WS');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3937,8 +4679,12 @@
       <c r="C187" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(186,'SAN MARINO','SM');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3948,8 +4694,12 @@
       <c r="C188" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(187,'SAO TOME AND PRINCIPE','ST');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3959,8 +4709,12 @@
       <c r="C189" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(188,'SAUDI ARABIA','SA');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3970,8 +4724,12 @@
       <c r="C190" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(189,'SENEGAL','SN');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3981,8 +4739,12 @@
       <c r="C191" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(190,'SERBIA AND MONTENEGRO','CS');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3992,8 +4754,12 @@
       <c r="C192" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(191,'SEYCHELLES','SC');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4003,8 +4769,12 @@
       <c r="C193" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(192,'SIERRA LEONE','SL');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4014,8 +4784,12 @@
       <c r="C194" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(193,'SINGAPORE','SG');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4025,8 +4799,12 @@
       <c r="C195" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D242" si="3">_xlfn.CONCAT("INSERT INTO country (country_id,name, short_name) VALUES(",A195,",'",B195,"',","'",C195,"');")</f>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(194,'SLOVAKIA','SK');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4036,8 +4814,12 @@
       <c r="C196" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(195,'SLOVENIA','SI');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4047,8 +4829,12 @@
       <c r="C197" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(196,'SOLOMON ISLANDS','SB');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4058,8 +4844,12 @@
       <c r="C198" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(197,'SOMALIA','SO');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4069,8 +4859,12 @@
       <c r="C199" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(198,'SOUTH AFRICA','ZA');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4080,8 +4874,12 @@
       <c r="C200" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(199,'SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS','GS');</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4091,8 +4889,12 @@
       <c r="C201" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(200,'SPAIN','ES');</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4102,8 +4904,12 @@
       <c r="C202" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(201,'SRI LANKA','LK');</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4113,8 +4919,12 @@
       <c r="C203" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(202,'SUDAN','SD');</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4124,8 +4934,12 @@
       <c r="C204" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(203,'SURINAME','SR');</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4135,8 +4949,12 @@
       <c r="C205" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(204,'SVALBARD AND JAN MAYEN','SJ');</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4146,8 +4964,12 @@
       <c r="C206" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(205,'SWAZILAND','SZ');</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4157,8 +4979,12 @@
       <c r="C207" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(206,'SWEDEN','SE');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4168,8 +4994,12 @@
       <c r="C208" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(207,'SWITZERLAND','CH');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4179,8 +5009,12 @@
       <c r="C209" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(208,'SYRIAN ARAB REPUBLIC','SY');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4190,8 +5024,12 @@
       <c r="C210" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(209,'TAIWAN, PROVINCE OF CHINA','TW');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4201,8 +5039,12 @@
       <c r="C211" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(210,'TAJIKISTAN','TJ');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4212,8 +5054,12 @@
       <c r="C212" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(211,'TANZANIA, UNITED REPUBLIC OF','TZ');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4223,8 +5069,12 @@
       <c r="C213" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(212,'THAILAND','TH');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4234,8 +5084,12 @@
       <c r="C214" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(213,'TIMOR-LESTE','TL');</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4245,8 +5099,12 @@
       <c r="C215" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(214,'TOGO','TG');</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4256,8 +5114,12 @@
       <c r="C216" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(215,'TOKELAU','TK');</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4267,8 +5129,12 @@
       <c r="C217" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(216,'TONGA','TO');</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4278,8 +5144,12 @@
       <c r="C218" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(217,'TRINIDAD AND TOBAGO','TT');</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4289,8 +5159,12 @@
       <c r="C219" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(218,'TUNISIA','TN');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4300,8 +5174,12 @@
       <c r="C220" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(219,'TURKEY','TR');</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4311,8 +5189,12 @@
       <c r="C221" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(220,'TURKMENISTAN','TM');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4322,8 +5204,12 @@
       <c r="C222" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(221,'TURKS AND CAICOS ISLANDS','TC');</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4333,8 +5219,12 @@
       <c r="C223" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(222,'TUVALU','TV');</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4344,8 +5234,12 @@
       <c r="C224" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(223,'UGANDA','UG');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4355,8 +5249,12 @@
       <c r="C225" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(224,'UKRAINE','UA');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4366,8 +5264,12 @@
       <c r="C226" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(225,'UNITED ARAB EMIRATES','AE');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4377,8 +5279,12 @@
       <c r="C227" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(226,'UNITED KINGDOM','GB');</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4388,8 +5294,12 @@
       <c r="C228" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(227,'UNITED STATES','US');</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4399,8 +5309,12 @@
       <c r="C229" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(228,'UNITED STATES MINOR OUTLYING ISLANDS','UM');</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4410,8 +5324,12 @@
       <c r="C230" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(229,'URUGUAY','UY');</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -4421,8 +5339,12 @@
       <c r="C231" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(230,'UZBEKISTAN','UZ');</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -4432,17 +5354,25 @@
       <c r="C232" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(231,'VANUATU','VU');</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C233" s="4"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="5"/>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(232,'Vatican City State see HOLY SEE                                                                                                                      VA','');</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4452,8 +5382,12 @@
       <c r="C234" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(233,'VENEZUELA','VE');</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4463,8 +5397,12 @@
       <c r="C235" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(234,'VIET NAM','VN');</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4474,8 +5412,12 @@
       <c r="C236" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(235,'VIRGIN ISLANDS, BRITISH','VG');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4485,8 +5427,12 @@
       <c r="C237" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(236,'VIRGIN ISLANDS, U.S.','VI');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4496,8 +5442,12 @@
       <c r="C238" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(237,'WALLIS AND FUTUNA','WF');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4507,8 +5457,12 @@
       <c r="C239" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(238,'WESTERN SAHARA','EH');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4518,8 +5472,12 @@
       <c r="C240" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(239,'YEMEN','YE');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4529,8 +5487,12 @@
       <c r="C241" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(240,'ZAMBIA','ZM');</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4539,6 +5501,10 @@
       </c>
       <c r="C242" s="2" t="s">
         <v>483</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO country (country_id,name, short_name) VALUES(241,'ZIMBABWE','ZW');</v>
       </c>
     </row>
   </sheetData>
